--- a/Admin/Buyer/Manual testcases/New Buyer Outlet.xlsx
+++ b/Admin/Buyer/Manual testcases/New Buyer Outlet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Buyer\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D22C27A-7A36-4126-9A95-019CEFD8844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFD7E8-6D7D-4549-BF0D-08ED948AE8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>SL. No</t>
   </si>
@@ -437,10 +437,42 @@
     <t>Save outlet and create new user</t>
   </si>
   <si>
-    <t>Once click the save and create new user page …in green color</t>
-  </si>
-  <si>
     <t>By default GMT +08:00 Singapore and set as Australian time</t>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mobile phone number and it should accept like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>….</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Save and create new user page …in green color</t>
   </si>
 </sst>
 </file>
@@ -580,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,13 +637,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,9 +1051,15 @@
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1039,9 +1074,15 @@
       <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1056,9 +1097,15 @@
       <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1074,8 +1121,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1084,15 +1131,21 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1102,14 +1155,20 @@
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1118,15 +1177,21 @@
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1136,14 +1201,20 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1153,14 +1224,20 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1170,10 +1247,39 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>41</v>
+      <c r="E15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
